--- a/docs/amostra_base.xlsx
+++ b/docs/amostra_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caiquefilipini\Desktop\caique\data_science\pos_graduacao\tcc\time_series_stocks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FCB9A-7304-47A5-B8D3-82688E41A04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2D3B0-4D96-441F-AFD9-C8C6638DC9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="906" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="906" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="amostra_base_pura" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="transf_estacionaria" sheetId="9" r:id="rId5"/>
     <sheet name="separacao_treino_teste" sheetId="10" r:id="rId6"/>
     <sheet name="resultados_modelagem_basica" sheetId="5" r:id="rId7"/>
+    <sheet name="resultados_modelagem_avancada" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +155,24 @@
   <si>
     <t>Linear Regression</t>
   </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Light GBM</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Prophet</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>Dispersão</t>
+  </si>
 </sst>
 </file>
 
@@ -161,8 +180,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -341,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -551,6 +570,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -734,7 +777,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -857,7 +900,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -872,10 +915,67 @@
     <xf numFmtId="10" fontId="22" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="39" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="38" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1591,16 +1691,16 @@
       <c r="R9" s="10"/>
     </row>
     <row r="10" spans="2:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
     </row>
     <row r="11" spans="2:18" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
@@ -2614,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F01400-7CEA-4062-9D1C-95092B24F263}">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3014,12 +3114,11 @@
     </row>
     <row r="18" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K19"/>
@@ -3042,6 +3141,18 @@
       <c r="E20" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="G20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
@@ -3061,6 +3172,21 @@
         <f t="shared" si="0"/>
         <v>2.7430725E-2</v>
       </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="52">
+        <f>RANK(C21,C$21:C$24,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="60">
+        <f t="shared" ref="I21:I24" si="1">RANK(D21,D$21:D$24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="60">
+        <f t="shared" ref="J21:J24" si="2">RANK(E21,E$21:E$24,1)</f>
+        <v>1</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -3069,16 +3195,31 @@
         <v>11</v>
       </c>
       <c r="C22" s="47">
-        <f t="shared" ref="C22:E22" si="1">AVERAGE(C14,C6,H6,H14)</f>
+        <f t="shared" ref="C22:E22" si="3">AVERAGE(C14,C6,H6,H14)</f>
         <v>2.50768E-2</v>
       </c>
       <c r="D22" s="47">
+        <f t="shared" si="3"/>
+        <v>5.3289150000000007E-2</v>
+      </c>
+      <c r="E22" s="47">
+        <f t="shared" si="3"/>
+        <v>0.1094794</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="60">
+        <f t="shared" ref="H22:H24" si="4">RANK(C22,C$21:C$24,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="59">
         <f t="shared" si="1"/>
-        <v>5.3289150000000007E-2</v>
-      </c>
-      <c r="E22" s="47">
-        <f t="shared" si="1"/>
-        <v>0.1094794</v>
+        <v>2</v>
+      </c>
+      <c r="J22" s="59">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -3088,16 +3229,31 @@
         <v>38</v>
       </c>
       <c r="C23" s="47">
-        <f t="shared" ref="C23:E23" si="2">AVERAGE(C15,C7,H7,H15)</f>
+        <f t="shared" ref="C23:E23" si="5">AVERAGE(C15,C7,H7,H15)</f>
         <v>2.5107475000000001E-2</v>
       </c>
       <c r="D23" s="47">
+        <f t="shared" si="5"/>
+        <v>5.4001775000000002E-2</v>
+      </c>
+      <c r="E23" s="47">
+        <f t="shared" si="5"/>
+        <v>0.114455075</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="59">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="55">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J23" s="55">
         <f t="shared" si="2"/>
-        <v>5.4001775000000002E-2</v>
-      </c>
-      <c r="E23" s="47">
-        <f t="shared" si="2"/>
-        <v>0.114455075</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,20 +3261,251 @@
         <v>15</v>
       </c>
       <c r="C24" s="48">
-        <f t="shared" ref="C24:E24" si="3">AVERAGE(C16,C8,H8,H16)</f>
+        <f t="shared" ref="C24:E24" si="6">AVERAGE(C16,C8,H8,H16)</f>
         <v>2.5730975E-2</v>
       </c>
       <c r="D24" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.6710775000000005E-2</v>
       </c>
       <c r="E24" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.11476727499999999</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="63">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="53">
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:E8">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:J8">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:J16">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E16">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:E24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D8">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:C16">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D16">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H16">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J16">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E24">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3130,8 +3517,1132 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:J8">
-    <cfRule type="colorScale" priority="4">
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F891B49D-8E1F-4074-9015-A38E8DD0FD54}">
+  <dimension ref="B1:P44"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="10" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="9"/>
+      <c r="L1" s="10"/>
+    </row>
+    <row r="2" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="47">
+        <v>2.33885E-2</v>
+      </c>
+      <c r="D5" s="47">
+        <v>2.33885E-2</v>
+      </c>
+      <c r="E5" s="47">
+        <v>2.33885E-2</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="47">
+        <v>2.9242400000000002E-2</v>
+      </c>
+      <c r="I5" s="47">
+        <v>2.9242400000000002E-2</v>
+      </c>
+      <c r="J5" s="47">
+        <v>2.9242400000000002E-2</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="47">
+        <v>2.1321300000000001E-2</v>
+      </c>
+      <c r="D6" s="47">
+        <v>4.4631499999999998E-2</v>
+      </c>
+      <c r="E6" s="47">
+        <v>8.9048600000000006E-2</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="47">
+        <v>2.4659E-2</v>
+      </c>
+      <c r="I6" s="47">
+        <v>4.9369499999999997E-2</v>
+      </c>
+      <c r="J6" s="47">
+        <v>0.105113</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="47">
+        <v>2.1363099999999999E-2</v>
+      </c>
+      <c r="D7" s="47">
+        <v>4.4622500000000002E-2</v>
+      </c>
+      <c r="E7" s="47">
+        <v>9.2843300000000004E-2</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="47">
+        <v>2.4613599999999999E-2</v>
+      </c>
+      <c r="I7" s="47">
+        <v>5.04603E-2</v>
+      </c>
+      <c r="J7" s="47">
+        <v>0.106104</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+    </row>
+    <row r="8" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="50">
+        <v>2.17491E-2</v>
+      </c>
+      <c r="D8" s="50">
+        <v>4.4573099999999997E-2</v>
+      </c>
+      <c r="E8" s="50">
+        <v>9.0270100000000006E-2</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="50">
+        <v>2.4937399999999998E-2</v>
+      </c>
+      <c r="I8" s="50">
+        <v>5.8465000000000003E-2</v>
+      </c>
+      <c r="J8" s="50">
+        <v>0.10552300000000001</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="50">
+        <v>2.13472E-2</v>
+      </c>
+      <c r="D9" s="50">
+        <v>4.4409299999999999E-2</v>
+      </c>
+      <c r="E9" s="50">
+        <v>8.84157E-2</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="50">
+        <v>2.4634199999999998E-2</v>
+      </c>
+      <c r="I9" s="50">
+        <v>4.9548799999999997E-2</v>
+      </c>
+      <c r="J9" s="50">
+        <v>0.10431799999999999</v>
+      </c>
+      <c r="K9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="50">
+        <v>2.2720299999999999E-2</v>
+      </c>
+      <c r="D10" s="50">
+        <v>4.5006999999999998E-2</v>
+      </c>
+      <c r="E10" s="50">
+        <v>8.93235E-2</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="50">
+        <v>2.4987700000000002E-2</v>
+      </c>
+      <c r="I10" s="50">
+        <v>4.9960400000000002E-2</v>
+      </c>
+      <c r="J10" s="50">
+        <v>0.10519100000000001</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="48">
+        <v>2.19039E-2</v>
+      </c>
+      <c r="D11" s="48">
+        <v>4.6328399999999999E-2</v>
+      </c>
+      <c r="E11" s="48">
+        <v>0.106839</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="48">
+        <v>2.51854E-2</v>
+      </c>
+      <c r="I11" s="48">
+        <v>5.1135699999999999E-2</v>
+      </c>
+      <c r="J11" s="48">
+        <v>0.12089900000000001</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="47">
+        <v>3.08148E-2</v>
+      </c>
+      <c r="D16" s="47">
+        <v>3.08148E-2</v>
+      </c>
+      <c r="E16" s="47">
+        <v>3.08148E-2</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="47">
+        <v>2.6277200000000001E-2</v>
+      </c>
+      <c r="I16" s="47">
+        <v>2.6277200000000001E-2</v>
+      </c>
+      <c r="J16" s="47">
+        <v>2.6277200000000001E-2</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="47">
+        <v>3.03152E-2</v>
+      </c>
+      <c r="D17" s="47">
+        <v>6.7660700000000004E-2</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0.140069</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="47">
+        <v>2.40117E-2</v>
+      </c>
+      <c r="I17" s="47">
+        <v>5.1494900000000003E-2</v>
+      </c>
+      <c r="J17" s="47">
+        <v>0.103687</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+    </row>
+    <row r="18" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="47">
+        <v>3.0505999999999998E-2</v>
+      </c>
+      <c r="D18" s="47">
+        <v>6.8879700000000002E-2</v>
+      </c>
+      <c r="E18" s="47">
+        <v>0.144786</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="47">
+        <v>2.3947199999999998E-2</v>
+      </c>
+      <c r="I18" s="47">
+        <v>5.2044600000000003E-2</v>
+      </c>
+      <c r="J18" s="47">
+        <v>0.11408699999999999</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="50">
+        <v>3.2568899999999998E-2</v>
+      </c>
+      <c r="D19" s="50">
+        <v>6.9807999999999995E-2</v>
+      </c>
+      <c r="E19" s="50">
+        <v>0.149865</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="50">
+        <v>2.3668499999999999E-2</v>
+      </c>
+      <c r="I19" s="50">
+        <v>5.3997000000000003E-2</v>
+      </c>
+      <c r="J19" s="50">
+        <v>0.113411</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+    </row>
+    <row r="20" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="50">
+        <v>3.03323E-2</v>
+      </c>
+      <c r="D20" s="50">
+        <v>6.7679699999999995E-2</v>
+      </c>
+      <c r="E20" s="50">
+        <v>0.14038700000000001</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="50">
+        <v>2.3955600000000001E-2</v>
+      </c>
+      <c r="I20" s="50">
+        <v>5.1519200000000001E-2</v>
+      </c>
+      <c r="J20" s="50">
+        <v>0.103116</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+    </row>
+    <row r="21" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="50">
+        <v>3.0886500000000001E-2</v>
+      </c>
+      <c r="D21" s="50">
+        <v>6.75428E-2</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0.13925699999999999</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="50">
+        <v>4.0392999999999998E-2</v>
+      </c>
+      <c r="I21" s="50">
+        <v>5.6158899999999998E-2</v>
+      </c>
+      <c r="J21" s="50">
+        <v>0.102922</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+    </row>
+    <row r="22" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="48">
+        <v>3.08066E-2</v>
+      </c>
+      <c r="D22" s="48">
+        <v>6.9738999999999995E-2</v>
+      </c>
+      <c r="E22" s="48">
+        <v>0.17030899999999999</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="48">
+        <v>2.4659199999999999E-2</v>
+      </c>
+      <c r="I22" s="48">
+        <v>5.3142799999999997E-2</v>
+      </c>
+      <c r="J22" s="48">
+        <v>0.116936</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+    </row>
+    <row r="24" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+    </row>
+    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="47">
+        <f>AVERAGE(C16,C5,H5,H16)</f>
+        <v>2.7430725E-2</v>
+      </c>
+      <c r="D27" s="47">
+        <f t="shared" ref="D27:E27" si="0">AVERAGE(D16,D5,I5,I16)</f>
+        <v>2.7430725E-2</v>
+      </c>
+      <c r="E27" s="47">
+        <f t="shared" si="0"/>
+        <v>2.7430725E-2</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="56">
+        <f t="shared" ref="H27:H33" si="1">RANK(C27,C$27:C$33,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I27" s="60">
+        <f t="shared" ref="I27:I33" si="2">RANK(D27,D$27:D$33,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J27" s="60">
+        <f t="shared" ref="J27:J33" si="3">RANK(E27,E$27:E$33,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="47">
+        <f>AVERAGE(C17,C6,H6,H17)</f>
+        <v>2.50768E-2</v>
+      </c>
+      <c r="D28" s="47">
+        <f>AVERAGE(D17,D6,I6,I17)</f>
+        <v>5.3289150000000007E-2</v>
+      </c>
+      <c r="E28" s="47">
+        <f>AVERAGE(E17,E6,J6,J17)</f>
+        <v>0.1094794</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="59">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="59">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J28" s="52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K28" s="64"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="47">
+        <f>AVERAGE(C18,C7,H7,H18)</f>
+        <v>2.5107475000000001E-2</v>
+      </c>
+      <c r="D29" s="47">
+        <f>AVERAGE(D18,D7,I7,I18)</f>
+        <v>5.4001775000000002E-2</v>
+      </c>
+      <c r="E29" s="47">
+        <f>AVERAGE(E18,E7,J7,J18)</f>
+        <v>0.114455075</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="55">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I29" s="56">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="56">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="50">
+        <f>AVERAGE(C19,C8,H8,H19)</f>
+        <v>2.5730975E-2</v>
+      </c>
+      <c r="D30" s="50">
+        <f>AVERAGE(D19,D8,I8,I19)</f>
+        <v>5.6710775000000005E-2</v>
+      </c>
+      <c r="E30" s="50">
+        <f>AVERAGE(E19,E8,J8,J19)</f>
+        <v>0.11476727499999999</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I30" s="57">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J30" s="57">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="50">
+        <f t="shared" ref="C31:E31" si="4">AVERAGE(C20,C9,H9,H20)</f>
+        <v>2.5067325000000001E-2</v>
+      </c>
+      <c r="D31" s="50">
+        <f t="shared" si="4"/>
+        <v>5.3289249999999996E-2</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="4"/>
+        <v>0.10905917500000001</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="54">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J31" s="62">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="50">
+        <f t="shared" ref="C32:E32" si="5">AVERAGE(C21,C10,H10,H21)</f>
+        <v>2.9746874999999999E-2</v>
+      </c>
+      <c r="D32" s="50">
+        <f t="shared" si="5"/>
+        <v>5.4667275000000001E-2</v>
+      </c>
+      <c r="E32" s="50">
+        <f t="shared" si="5"/>
+        <v>0.109173375</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="57">
+        <f>RANK(C32,C$27:C$33,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I32" s="57">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J32" s="54">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="48">
+        <f t="shared" ref="C33:E33" si="6">AVERAGE(C22,C11,H11,H22)</f>
+        <v>2.5638775000000003E-2</v>
+      </c>
+      <c r="D33" s="48">
+        <f t="shared" si="6"/>
+        <v>5.5086474999999996E-2</v>
+      </c>
+      <c r="E33" s="48">
+        <f t="shared" si="6"/>
+        <v>0.12874575000000002</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" s="58">
+        <f t="shared" ref="H33" si="7">RANK(C33,C$27:C$33,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I33" s="58">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J33" s="58">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:16" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="67">
+        <f t="shared" ref="C38:E44" si="8">INDEX(C$26:C$33,MATCH($B38,$B$26:$B$33,0),1)/INDEX(C$27:C$33,MATCH(INDEX($G$37:$G$44,MATCH(1,H$37:H$44,0),1),$B$27:$B$33,0),1)-1</f>
+        <v>9.4282098309253159E-2</v>
+      </c>
+      <c r="D38" s="65">
+        <f t="shared" ref="D38:D44" si="9">INDEX(D$26:D$33,MATCH($B38,$B$26:$B$33,0),1)/INDEX(D$27:D$33,MATCH(INDEX($G$37:$G$44,MATCH(1,I$37:I$44,0),1),$B$27:$B$33,0),1)-1</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="65">
+        <f t="shared" ref="E38:E44" si="10">INDEX(E$26:E$33,MATCH($B38,$B$26:$B$33,0),1)/INDEX(E$27:E$33,MATCH(INDEX($G$37:$G$44,MATCH(1,J$37:J$44,0),1),$B$27:$B$33,0),1)-1</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="56">
+        <v>6</v>
+      </c>
+      <c r="I38" s="60">
+        <v>1</v>
+      </c>
+      <c r="J38" s="60">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="65">
+        <f t="shared" si="8"/>
+        <v>3.7798209422024165E-4</v>
+      </c>
+      <c r="D39" s="67">
+        <f t="shared" ref="D39:E44" si="11">INDEX(D$26:D$33,MATCH($B39,$B$26:$B$33,0),1)/INDEX(D$27:D$33,MATCH(INDEX($G$37:$G$44,MATCH(1,I$37:I$44,0),1),$B$27:$B$33,0),1)-1</f>
+        <v>0.94268106293216847</v>
+      </c>
+      <c r="E39" s="67">
+        <f t="shared" si="10"/>
+        <v>2.9911230928092496</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="59">
+        <v>2</v>
+      </c>
+      <c r="I39" s="59">
+        <v>2</v>
+      </c>
+      <c r="J39" s="52">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="65">
+        <f t="shared" si="8"/>
+        <v>1.6016866578303368E-3</v>
+      </c>
+      <c r="D40" s="65">
+        <f t="shared" si="11"/>
+        <v>0.96866014296012959</v>
+      </c>
+      <c r="E40" s="65">
+        <f t="shared" si="10"/>
+        <v>3.1725136685231616</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="55">
+        <v>3</v>
+      </c>
+      <c r="I40" s="56">
+        <v>4</v>
+      </c>
+      <c r="J40" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="65">
+        <f t="shared" si="8"/>
+        <v>2.6474703623142748E-2</v>
+      </c>
+      <c r="D41" s="65">
+        <f t="shared" si="11"/>
+        <v>1.0674180139241676</v>
+      </c>
+      <c r="E41" s="65">
+        <f t="shared" si="10"/>
+        <v>3.183895066572247</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="57">
+        <v>5</v>
+      </c>
+      <c r="I41" s="57">
+        <v>7</v>
+      </c>
+      <c r="J41" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="67">
+        <f t="shared" si="11"/>
+        <v>0.94268470847926911</v>
+      </c>
+      <c r="E42" s="67">
+        <f t="shared" si="10"/>
+        <v>2.9758035925043909</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="61">
+        <v>1</v>
+      </c>
+      <c r="I42" s="54">
+        <v>3</v>
+      </c>
+      <c r="J42" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="65">
+        <f t="shared" si="8"/>
+        <v>0.18667927271856888</v>
+      </c>
+      <c r="D43" s="65">
+        <f t="shared" si="11"/>
+        <v>0.9929212589167804</v>
+      </c>
+      <c r="E43" s="65">
+        <f t="shared" si="10"/>
+        <v>2.9799668072936463</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H43" s="57">
+        <v>7</v>
+      </c>
+      <c r="I43" s="57">
+        <v>5</v>
+      </c>
+      <c r="J43" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="66">
+        <f t="shared" si="8"/>
+        <v>2.2796608732682966E-2</v>
+      </c>
+      <c r="D44" s="66">
+        <f t="shared" si="11"/>
+        <v>1.0082033923638547</v>
+      </c>
+      <c r="E44" s="66">
+        <f t="shared" si="10"/>
+        <v>3.693486956688167</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="58">
+        <v>4</v>
+      </c>
+      <c r="I44" s="58">
+        <v>6</v>
+      </c>
+      <c r="J44" s="58">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C27:E30">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3142,8 +4653,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13:J16">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C16:E18">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3154,8 +4665,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:E16">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H16:J18">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3166,8 +4677,308 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E24">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C19:E19">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:J19">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:J8">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:J9">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:J11">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:E23">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:J20">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:J23">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:E31">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:E33">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C11">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H11">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C23">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D23">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E23">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H23">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I23">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J23">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C33">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D33">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E33">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
